--- a/Squads/D2/Nurnberg_FC Koln_squad.xlsx
+++ b/Squads/D2/Nurnberg_FC Koln_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="212">
   <si>
     <t>Rk</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Min</t>
   </si>
   <si>
-    <t>90s</t>
-  </si>
-  <si>
     <t>Gls</t>
   </si>
   <si>
     <t>Ast</t>
   </si>
   <si>
+    <t>GlspAst</t>
+  </si>
+  <si>
     <t>npG</t>
   </si>
   <si>
@@ -110,397 +110,544 @@
     <t>npxG p90</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>264</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>Jens Castrop</t>
+  </si>
+  <si>
+    <t>Florian Flick</t>
+  </si>
+  <si>
+    <t>Caspar Jander</t>
+  </si>
+  <si>
+    <t>Eric Martel</t>
+  </si>
+  <si>
+    <t>Jan Thielmann</t>
+  </si>
+  <si>
+    <t>Julian Pauli</t>
+  </si>
+  <si>
+    <t>Luca Waldschmidt</t>
+  </si>
+  <si>
+    <t>Taylan Duman</t>
+  </si>
+  <si>
+    <t>Finn Jeltsch</t>
+  </si>
+  <si>
+    <t>Julian Justvan</t>
+  </si>
+  <si>
+    <t>Mahir Madatov</t>
+  </si>
+  <si>
+    <t>Kanji Okunuki</t>
+  </si>
+  <si>
+    <t>Janni Serra</t>
+  </si>
+  <si>
+    <t>Michal Ševčík</t>
+  </si>
+  <si>
+    <t>Danilo Soares</t>
+  </si>
+  <si>
+    <t>Elias Bakatukanda</t>
+  </si>
+  <si>
+    <t>Rasmus Carstensen</t>
+  </si>
+  <si>
+    <t>Dominique Heintz</t>
+  </si>
+  <si>
+    <t>Tim Lemperle</t>
+  </si>
+  <si>
+    <t>Dejan Ljubicic</t>
+  </si>
+  <si>
+    <t>Leart Paqarada</t>
+  </si>
+  <si>
+    <t>Dustin Forkel</t>
+  </si>
+  <si>
+    <t>Benjamin Goller</t>
+  </si>
+  <si>
+    <t>Jannik Hofmann</t>
+  </si>
+  <si>
+    <t>Tim Janisch</t>
+  </si>
+  <si>
+    <t>Ondřej Karafiát</t>
+  </si>
+  <si>
+    <t>Robin Knoche</t>
+  </si>
+  <si>
+    <t>Rafael Lubach</t>
+  </si>
+  <si>
+    <t>Florian Pick</t>
+  </si>
+  <si>
+    <t>Jan Reichert</t>
+  </si>
+  <si>
+    <t>Oliver Rose-Villadsen</t>
+  </si>
+  <si>
+    <t>Lukas Schleimer</t>
+  </si>
+  <si>
+    <t>Stefanos Tzimas</t>
+  </si>
+  <si>
+    <t>Enrico Valentini</t>
+  </si>
+  <si>
+    <t>Sargis Adamyan</t>
+  </si>
+  <si>
+    <t>Florian Dietz</t>
+  </si>
+  <si>
+    <t>Damion Downs</t>
+  </si>
+  <si>
+    <t>Timo Hübers</t>
+  </si>
+  <si>
+    <t>Denis Huseinbasic</t>
+  </si>
+  <si>
+    <t>Linton Maina</t>
+  </si>
+  <si>
+    <t>Marvin Obuz</t>
+  </si>
+  <si>
+    <t>Mathias Olesen</t>
+  </si>
+  <si>
+    <t>Steffen Tigges</t>
+  </si>
+  <si>
+    <t>Jonas Urbig</t>
+  </si>
+  <si>
+    <t>Mark Uth</t>
+  </si>
+  <si>
+    <t>de GER</t>
+  </si>
+  <si>
+    <t>az AZE</t>
+  </si>
+  <si>
+    <t>jp JPN</t>
+  </si>
+  <si>
+    <t>cz CZE</t>
+  </si>
+  <si>
+    <t>br BRA</t>
+  </si>
+  <si>
+    <t>dk DEN</t>
+  </si>
+  <si>
+    <t>at AUT</t>
+  </si>
+  <si>
+    <t>xk KVX</t>
+  </si>
+  <si>
+    <t>gr GRE</t>
+  </si>
+  <si>
+    <t>it ITA</t>
+  </si>
+  <si>
+    <t>am ARM</t>
+  </si>
+  <si>
+    <t>us USA</t>
+  </si>
+  <si>
+    <t>ba BIH</t>
+  </si>
+  <si>
+    <t>lu LUX</t>
+  </si>
+  <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>Nurnberg</t>
+  </si>
+  <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
+    <t>21-060</t>
+  </si>
+  <si>
+    <t>24-149</t>
+  </si>
+  <si>
+    <t>21-188</t>
+  </si>
+  <si>
+    <t>22-151</t>
+  </si>
+  <si>
+    <t>22-124</t>
+  </si>
+  <si>
+    <t>19-071</t>
+  </si>
+  <si>
+    <t>28-131</t>
+  </si>
+  <si>
+    <t>27-059</t>
+  </si>
+  <si>
+    <t>18-072</t>
+  </si>
+  <si>
+    <t>26-178</t>
+  </si>
+  <si>
+    <t>27-088</t>
+  </si>
+  <si>
+    <t>25-047</t>
+  </si>
+  <si>
+    <t>26-198</t>
+  </si>
+  <si>
+    <t>22-045</t>
+  </si>
+  <si>
+    <t>32-334</t>
+  </si>
+  <si>
+    <t>20-167</t>
+  </si>
+  <si>
+    <t>23-352</t>
+  </si>
+  <si>
+    <t>31-043</t>
+  </si>
+  <si>
+    <t>22-235</t>
+  </si>
+  <si>
+    <t>26-355</t>
+  </si>
+  <si>
+    <t>29-355</t>
+  </si>
+  <si>
+    <t>19-245</t>
+  </si>
+  <si>
+    <t>25-270</t>
+  </si>
+  <si>
+    <t>22-232</t>
+  </si>
+  <si>
+    <t>19-046</t>
+  </si>
+  <si>
+    <t>29-301</t>
+  </si>
+  <si>
+    <t>32-128</t>
+  </si>
+  <si>
+    <t>19-260</t>
+  </si>
+  <si>
+    <t>29-019</t>
+  </si>
+  <si>
+    <t>23-204</t>
+  </si>
+  <si>
+    <t>22-316</t>
+  </si>
+  <si>
+    <t>24-293</t>
+  </si>
+  <si>
+    <t>18-265</t>
+  </si>
+  <si>
+    <t>35-220</t>
+  </si>
+  <si>
+    <t>31-127</t>
+  </si>
+  <si>
+    <t>26-055</t>
+  </si>
+  <si>
+    <t>20-083</t>
+  </si>
+  <si>
+    <t>28-069</t>
+  </si>
+  <si>
+    <t>23-086</t>
+  </si>
+  <si>
+    <t>25-096</t>
+  </si>
+  <si>
+    <t>22-246</t>
+  </si>
+  <si>
+    <t>23-190</t>
+  </si>
+  <si>
+    <t>26-058</t>
+  </si>
+  <si>
+    <t>21-050</t>
+  </si>
+  <si>
+    <t>33-034</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>Jens Castrop</t>
-  </si>
-  <si>
-    <t>Florian Flick</t>
-  </si>
-  <si>
-    <t>Finn Jeltsch</t>
-  </si>
-  <si>
-    <t>Janni Serra</t>
-  </si>
-  <si>
-    <t>Tim Lemperle</t>
-  </si>
-  <si>
-    <t>Julian Pauli</t>
-  </si>
-  <si>
-    <t>Dustin Forkel</t>
-  </si>
-  <si>
-    <t>Jannik Hofmann</t>
-  </si>
-  <si>
-    <t>Caspar Jander</t>
-  </si>
-  <si>
-    <t>Ondřej Karafiát</t>
-  </si>
-  <si>
-    <t>Robin Knoche</t>
-  </si>
-  <si>
-    <t>Kanji Okunuki</t>
-  </si>
-  <si>
-    <t>Florian Pick</t>
-  </si>
-  <si>
-    <t>Jan Reichert</t>
-  </si>
-  <si>
-    <t>Lukas Schleimer</t>
-  </si>
-  <si>
-    <t>Danilo Soares</t>
-  </si>
-  <si>
-    <t>Stefanos Tzimas</t>
-  </si>
-  <si>
-    <t>Enrico Valentini</t>
-  </si>
-  <si>
-    <t>Sargis Adamyan</t>
-  </si>
-  <si>
-    <t>Florian Dietz</t>
-  </si>
-  <si>
-    <t>Damion Downs</t>
-  </si>
-  <si>
-    <t>Dominique Heintz</t>
-  </si>
-  <si>
-    <t>Timo Hübers</t>
-  </si>
-  <si>
-    <t>Denis Huseinbasic</t>
-  </si>
-  <si>
-    <t>Dejan Ljubicic</t>
-  </si>
-  <si>
-    <t>Linton Maina</t>
-  </si>
-  <si>
-    <t>Eric Martel</t>
-  </si>
-  <si>
-    <t>Marvin Obuz</t>
-  </si>
-  <si>
-    <t>Leart Paqarada</t>
-  </si>
-  <si>
-    <t>Jan Thielmann</t>
-  </si>
-  <si>
-    <t>Jonas Urbig</t>
-  </si>
-  <si>
-    <t>Luca Waldschmidt</t>
-  </si>
-  <si>
-    <t>de GER</t>
-  </si>
-  <si>
-    <t>cz CZE</t>
-  </si>
-  <si>
-    <t>jp JPN</t>
-  </si>
-  <si>
-    <t>br BRA</t>
-  </si>
-  <si>
-    <t>gr GRE</t>
-  </si>
-  <si>
-    <t>it ITA</t>
-  </si>
-  <si>
-    <t>am ARM</t>
-  </si>
-  <si>
-    <t>us USA</t>
-  </si>
-  <si>
-    <t>ba BIH</t>
-  </si>
-  <si>
-    <t>at AUT</t>
-  </si>
-  <si>
-    <t>xk KVX</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>Nurnberg</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>21-008</t>
-  </si>
-  <si>
-    <t>24-097</t>
-  </si>
-  <si>
-    <t>18-020</t>
-  </si>
-  <si>
-    <t>26-146</t>
-  </si>
-  <si>
-    <t>22-183</t>
-  </si>
-  <si>
-    <t>19-019</t>
-  </si>
-  <si>
-    <t>19-193</t>
-  </si>
-  <si>
-    <t>22-180</t>
-  </si>
-  <si>
-    <t>21-136</t>
-  </si>
-  <si>
-    <t>29-249</t>
-  </si>
-  <si>
-    <t>32-076</t>
-  </si>
-  <si>
-    <t>24-361</t>
-  </si>
-  <si>
-    <t>28-333</t>
-  </si>
-  <si>
-    <t>23-152</t>
-  </si>
-  <si>
-    <t>24-241</t>
-  </si>
-  <si>
-    <t>32-282</t>
-  </si>
-  <si>
-    <t>18-213</t>
-  </si>
-  <si>
-    <t>35-168</t>
-  </si>
-  <si>
-    <t>31-075</t>
-  </si>
-  <si>
-    <t>26-003</t>
-  </si>
-  <si>
-    <t>20-031</t>
-  </si>
-  <si>
-    <t>30-357</t>
-  </si>
-  <si>
-    <t>28-017</t>
-  </si>
-  <si>
-    <t>23-034</t>
-  </si>
-  <si>
-    <t>26-303</t>
-  </si>
-  <si>
-    <t>25-044</t>
-  </si>
-  <si>
-    <t>22-099</t>
-  </si>
-  <si>
-    <t>22-194</t>
-  </si>
-  <si>
-    <t>29-303</t>
-  </si>
-  <si>
-    <t>22-072</t>
-  </si>
-  <si>
-    <t>20-364</t>
-  </si>
-  <si>
-    <t>28-079</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -655,46 +802,46 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>29.0</v>
+        <v>44.0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>73.0</v>
+        <v>464.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
@@ -706,49 +853,49 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AE2" t="n">
         <v>0.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -756,37 +903,37 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>57.0</v>
+        <v>80.0</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K3" t="n">
-        <v>90.0</v>
+        <v>540.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -807,7 +954,7 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -819,19 +966,19 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y3" t="n">
         <v>0.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB3" t="n">
         <v>0.0</v>
@@ -857,49 +1004,49 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>117.0</v>
+        <v>151.0</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K4" t="n">
-        <v>90.0</v>
+        <v>403.0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.0</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
@@ -908,49 +1055,49 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -958,49 +1105,49 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>243.0</v>
+        <v>221.0</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K5" t="n">
-        <v>8.0</v>
+        <v>535.0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
@@ -1009,49 +1156,49 @@
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AC5" t="n">
         <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -1059,46 +1206,46 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>155.0</v>
+        <v>357.0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.0</v>
+        <v>518.0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P6" t="n">
         <v>0.0</v>
@@ -1110,49 +1257,49 @@
         <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7</v>
+        <v>2.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB6" t="n">
         <v>0.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AE6" t="n">
         <v>0.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.65</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -1160,37 +1307,37 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>206.0</v>
+        <v>278.0</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K7" t="n">
-        <v>86.0</v>
+        <v>457.0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.0</v>
+        <v>5.1</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1211,31 +1358,31 @@
         <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB7" t="n">
         <v>0.0</v>
@@ -1253,7 +1400,7 @@
         <v>0.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -1261,49 +1408,49 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>58.0</v>
+        <v>373.0</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K8" t="n">
-        <v>17.0</v>
+        <v>207.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
@@ -1312,49 +1459,49 @@
         <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>1.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0.43</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0.43</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0.43</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0.43</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
@@ -1362,91 +1509,91 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>100.0</v>
+        <v>69.0</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>73.0</v>
+        <v>40.0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P9" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0</v>
+        <v>2.25</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>2.25</v>
       </c>
       <c r="AE9" t="n">
         <v>0.0</v>
@@ -1455,7 +1602,7 @@
         <v>0.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.03</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="10">
@@ -1463,37 +1610,37 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>115.0</v>
+        <v>154.0</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K10" t="n">
-        <v>90.0</v>
+        <v>530.0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.0</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
@@ -1514,31 +1661,31 @@
         <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
@@ -1556,7 +1703,7 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -1564,100 +1711,100 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>127.0</v>
+        <v>159.0</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K11" t="n">
-        <v>17.0</v>
+        <v>279.0</v>
       </c>
       <c r="L11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.2</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.1</v>
-      </c>
       <c r="X11" t="n">
-        <v>0.1</v>
+        <v>1.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB11" t="n">
         <v>0.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AE11" t="n">
         <v>0.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
@@ -1665,37 +1812,37 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>142.0</v>
+        <v>213.0</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="J12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>73.0</v>
+        <v>52.0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
@@ -1716,7 +1863,7 @@
         <v>0.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -1734,13 +1881,13 @@
         <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>2.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0</v>
@@ -1766,37 +1913,37 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>198.0</v>
+        <v>267.0</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.0</v>
@@ -1817,49 +1964,49 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z13" t="n">
         <v>0.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.61</v>
+        <v>0.38</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.61</v>
+        <v>0.38</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.21</v>
+        <v>0.76</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.61</v>
+        <v>0.38</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.21</v>
+        <v>0.76</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.29</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="14">
@@ -1867,49 +2014,49 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>208.0</v>
+        <v>336.0</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>90.0</v>
+        <v>8.0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
@@ -1918,49 +2065,49 @@
         <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1968,49 +2115,49 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>216.0</v>
+        <v>338.0</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>90.0</v>
+        <v>60.0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -2019,49 +2166,49 @@
         <v>0.0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W15" t="n">
         <v>0.0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y15" t="n">
         <v>0.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA15" t="n">
         <v>0.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="AC15" t="n">
         <v>0.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
@@ -2069,46 +2216,46 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>234.0</v>
+        <v>340.0</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J16" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K16" t="n">
-        <v>82.0</v>
+        <v>419.0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -2120,7 +2267,7 @@
         <v>0.0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -2132,37 +2279,37 @@
         <v>0.1</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X16" t="n">
         <v>0.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB16" t="n">
         <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="AE16" t="n">
         <v>0.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
@@ -2170,37 +2317,37 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>245.0</v>
+        <v>17.0</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>90.0</v>
+        <v>20.0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.0</v>
+        <v>0.2</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
@@ -2221,7 +2368,7 @@
         <v>0.0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
@@ -2239,13 +2386,13 @@
         <v>0.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" t="n">
         <v>0.0</v>
@@ -2263,7 +2410,7 @@
         <v>0.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -2271,37 +2418,37 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>262.0</v>
+        <v>41.0</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -2322,32 +2469,32 @@
         <v>0.0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W18" t="n">
         <v>0.0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" t="n">
         <v>3.0</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6.0</v>
-      </c>
       <c r="AB18" t="n">
         <v>0.0</v>
       </c>
@@ -2364,7 +2511,7 @@
         <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -2372,37 +2519,37 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>264.0</v>
+        <v>121.0</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K19" t="n">
-        <v>17.0</v>
+        <v>151.0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
@@ -2423,7 +2570,7 @@
         <v>0.0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -2435,16 +2582,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA19" t="n">
         <v>0.0</v>
@@ -2465,7 +2612,7 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
@@ -2473,49 +2620,49 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M20" t="n">
         <v>2.0</v>
       </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
@@ -2524,49 +2671,49 @@
         <v>0.0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1</v>
+        <v>4.7</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1</v>
+        <v>4.7</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1</v>
+        <v>6.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>4.0</v>
+        <v>50.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0</v>
+        <v>0.57</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0</v>
+        <v>0.95</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.0</v>
+        <v>0.95</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="21">
@@ -2574,49 +2721,49 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>42.0</v>
+        <v>207.0</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K21" t="n">
-        <v>15.0</v>
+        <v>436.0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0</v>
@@ -2625,49 +2772,49 @@
         <v>0.0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0</v>
+        <v>3.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0</v>
+        <v>0.83</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="22">
@@ -2675,100 +2822,100 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z22" t="n">
         <v>45.0</v>
       </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AA22" t="n">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB22" t="n">
         <v>0.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
@@ -2776,83 +2923,83 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>89.0</v>
+        <v>81.0</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA23" t="n">
         <v>4.0</v>
       </c>
-      <c r="L23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AB23" t="n">
         <v>0.0</v>
       </c>
@@ -2869,7 +3016,7 @@
         <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
@@ -2877,37 +3024,37 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>104.0</v>
+        <v>101.0</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K24" t="n">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
@@ -2934,25 +3081,25 @@
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" t="n">
         <v>3.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB24" t="n">
         <v>0.0</v>
@@ -2970,7 +3117,7 @@
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.37</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -2978,37 +3125,37 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>107.0</v>
+        <v>133.0</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="J25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.0</v>
+        <v>163.0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.0</v>
+        <v>1.8</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -3035,25 +3182,25 @@
         <v>0.0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB25" t="n">
         <v>0.0</v>
@@ -3071,7 +3218,7 @@
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.52</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
@@ -3079,46 +3226,46 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>157.0</v>
+        <v>152.0</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" t="n">
         <v>0.0</v>
@@ -3136,43 +3283,43 @@
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z26" t="n">
-        <v>3.0</v>
-      </c>
       <c r="AA26" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB26" t="n">
         <v>0.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE26" t="n">
         <v>0.0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -3180,49 +3327,49 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>162.0</v>
+        <v>165.0</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>34.0</v>
+        <v>69.0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -3237,43 +3384,43 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X27" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Y27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z27" t="n">
-        <v>1.0</v>
-      </c>
       <c r="AA27" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.65</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.65</v>
+        <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.65</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.65</v>
+        <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -3281,37 +3428,37 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>165.0</v>
+        <v>183.0</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H28" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K28" t="n">
-        <v>90.0</v>
+        <v>523.0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.0</v>
+        <v>5.8</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -3350,13 +3497,13 @@
         <v>0.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z28" t="n">
         <v>14.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
@@ -3374,7 +3521,7 @@
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
@@ -3382,49 +3529,49 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>197.0</v>
+        <v>210.0</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="I29" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
-        <v>4.0</v>
+        <v>111.0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
@@ -3439,43 +3586,43 @@
         <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y29" t="n">
         <v>0.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>0.81</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0</v>
+        <v>0.81</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0</v>
+        <v>0.81</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0</v>
+        <v>0.81</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.37</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="30">
@@ -3483,49 +3630,49 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>205.0</v>
+        <v>284.0</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K30" t="n">
-        <v>90.0</v>
+        <v>297.0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0</v>
+        <v>3.3</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -3540,43 +3687,43 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="W30" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0</v>
+        <v>0.61</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.0</v>
+        <v>0.61</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31">
@@ -3584,37 +3731,37 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>259.0</v>
+        <v>301.0</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K31" t="n">
-        <v>90.0</v>
+        <v>540.0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -3647,19 +3794,19 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3685,37 +3832,37 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>263.0</v>
+        <v>313.0</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K32" t="n">
-        <v>90.0</v>
+        <v>237.0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.0</v>
+        <v>2.6</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
@@ -3742,25 +3889,25 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB32" t="n">
         <v>0.0</v>
@@ -3778,7 +3925,7 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33">
@@ -3786,100 +3933,1413 @@
         <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>269.0</v>
+        <v>326.0</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="G33" t="s">
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
         <v>144</v>
       </c>
-      <c r="H33" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="G37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W38" t="n">
         <v>0.6</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0.55</v>
+      <c r="X38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>536.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I44" t="s">
+        <v>208</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
